--- a/simulation_record.xlsx
+++ b/simulation_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Gkeyll_IAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D245DB8-8CA7-4C45-AD85-59E624E22B3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A131A29D-B7D5-4430-BC46-AB79367BFC1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="12225" xr2:uid="{6114E2D3-7950-4F30-8E3B-63CABD540727}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13230" windowHeight="7980" xr2:uid="{6114E2D3-7950-4F30-8E3B-63CABD540727}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>directory</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Biskamp VP</t>
   </si>
   <si>
-    <t>Nonuniform test</t>
-  </si>
-  <si>
     <t>IAT/linear/nonuniform_1d/1/</t>
   </si>
   <si>
@@ -193,13 +190,58 @@
   </si>
   <si>
     <t>End date</t>
+  </si>
+  <si>
+    <t>Nonuniform grid test</t>
+  </si>
+  <si>
+    <t>IAT/linear/nonuniform_1d/2/</t>
+  </si>
+  <si>
+    <t>IAT/linear/nonuniform_1d/3/</t>
+  </si>
+  <si>
+    <t>256 non-u,48</t>
+  </si>
+  <si>
+    <t>128 non-u,48</t>
+  </si>
+  <si>
+    <t>For benchmarking non-uniform grid</t>
+  </si>
+  <si>
+    <t>Fine, but growth rate a little bit larger</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>2000/1692</t>
+  </si>
+  <si>
+    <t>IAT/linear/nonuniform_1d/uni1/</t>
+  </si>
+  <si>
+    <t>IAT/linear/nonuniform_1d/uni3/</t>
+  </si>
+  <si>
+    <t>IAT_1d.lua</t>
+  </si>
+  <si>
+    <t>IAT/extE/E1_highres_truc</t>
+  </si>
+  <si>
+    <t>96,32 / 64</t>
+  </si>
+  <si>
+    <t>See if higher space resolution (resolve \lambda_de, will make difference)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +253,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,12 +285,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,23 +611,23 @@
   <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
     <col min="14" max="14" width="11.85546875" customWidth="1"/>
     <col min="15" max="15" width="60.5703125" customWidth="1"/>
     <col min="16" max="16" width="9.140625" customWidth="1"/>
@@ -595,7 +647,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>33</v>
@@ -622,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>4</v>
@@ -641,7 +693,9 @@
       <c r="D2" s="2">
         <v>44281</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
@@ -683,7 +737,9 @@
       <c r="D3" s="2">
         <v>44280</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F3" t="s">
         <v>30</v>
       </c>
@@ -725,7 +781,9 @@
       <c r="D4" s="2">
         <v>44294</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F4" t="s">
         <v>46</v>
       </c>
@@ -768,7 +826,9 @@
       <c r="D5" s="2">
         <v>44299</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F5" t="s">
         <v>46</v>
       </c>
@@ -798,7 +858,9 @@
       <c r="D6" s="2">
         <v>44301</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I6">
         <v>41621254</v>
       </c>
@@ -828,7 +890,9 @@
       <c r="D7" s="2">
         <v>44308</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F7" t="s">
         <v>46</v>
       </c>
@@ -873,7 +937,9 @@
       <c r="D8" s="2">
         <v>44308</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F8" t="s">
         <v>46</v>
       </c>
@@ -918,7 +984,9 @@
       <c r="D9" s="2">
         <v>44310</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>44312</v>
+      </c>
       <c r="F9" t="s">
         <v>46</v>
       </c>
@@ -937,8 +1005,8 @@
       <c r="L9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M9">
-        <v>2000</v>
+      <c r="M9" t="s">
+        <v>63</v>
       </c>
       <c r="N9">
         <v>1.0000000000000001E-5</v>
@@ -948,49 +1016,248 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C10" s="2">
+        <v>44312</v>
+      </c>
+      <c r="I10">
+        <v>41986484</v>
+      </c>
+      <c r="J10">
+        <v>41805113</v>
+      </c>
+      <c r="M10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44310</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44311</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44312</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="2">
-        <v>44310</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11">
+        <v>35849095</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <v>600</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="6">
+        <v>44311</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44311</v>
+      </c>
+      <c r="E12" s="6">
+        <v>44312</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I12" s="5">
+        <v>35857419</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I10">
-        <v>35834693</v>
-      </c>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10">
+      <c r="M12" s="5">
         <v>600</v>
       </c>
-      <c r="N10">
+      <c r="N12" s="5">
         <v>0</v>
       </c>
-      <c r="O10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="O12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="6">
+        <v>44311</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44311</v>
+      </c>
+      <c r="E13" s="6">
+        <v>44312</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="5">
+        <v>35857418</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="5">
+        <v>600</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44312</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44312</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44313</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="6">
+        <v>44312</v>
+      </c>
+      <c r="D15" s="6">
+        <v>44312</v>
+      </c>
+      <c r="E15" s="6">
+        <v>44313</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44313</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>42023290</v>
+      </c>
+      <c r="K16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <v>3000</v>
+      </c>
+      <c r="N16">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/simulation_record.xlsx
+++ b/simulation_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Gkeyll_IAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A131A29D-B7D5-4430-BC46-AB79367BFC1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111A068E-BDC4-4163-A06D-774117C1A9A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13230" windowHeight="7980" xr2:uid="{6114E2D3-7950-4F30-8E3B-63CABD540727}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
   <si>
     <t>directory</t>
   </si>
@@ -63,9 +63,6 @@
     <t>{-6,6},{-16,16}</t>
   </si>
   <si>
-    <t>Try to use truncated distribution function in low E to run longer</t>
-  </si>
-  <si>
     <t>IAT/extE/ext2</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>1200/104</t>
   </si>
   <si>
-    <t>Try to use truncated distribution functio to run longer</t>
-  </si>
-  <si>
     <t>failed, because electron velocity range is not large enough</t>
   </si>
   <si>
@@ -183,18 +177,12 @@
     <t>96 non-u,48</t>
   </si>
   <si>
-    <t>Test nonunifrom grid</t>
-  </si>
-  <si>
     <t>E field</t>
   </si>
   <si>
     <t>End date</t>
   </si>
   <si>
-    <t>Nonuniform grid test</t>
-  </si>
-  <si>
     <t>IAT/linear/nonuniform_1d/2/</t>
   </si>
   <si>
@@ -210,9 +198,6 @@
     <t>For benchmarking non-uniform grid</t>
   </si>
   <si>
-    <t>Fine, but growth rate a little bit larger</t>
-  </si>
-  <si>
     <t>\</t>
   </si>
   <si>
@@ -235,13 +220,73 @@
   </si>
   <si>
     <t>See if higher space resolution (resolve \lambda_de, will make difference)</t>
+  </si>
+  <si>
+    <t>96,48</t>
+  </si>
+  <si>
+    <t>IAT/es_extE/nonu_check/2</t>
+  </si>
+  <si>
+    <t>IATwExt_1x1v.lua</t>
+  </si>
+  <si>
+    <t>108 non-u,32</t>
+  </si>
+  <si>
+    <t>{-6,12},{-16,16}</t>
+  </si>
+  <si>
+    <t>even worse growth rate</t>
+  </si>
+  <si>
+    <t>Fine, but growth rate a little bit larger, ~0.0137</t>
+  </si>
+  <si>
+    <t>very bad growth rate ~0.190</t>
+  </si>
+  <si>
+    <t>Compare growth rate with non-u grids</t>
+  </si>
+  <si>
+    <t>Test nonunifrom grid for 1d</t>
+  </si>
+  <si>
+    <t>Nonuniform grid test 1d</t>
+  </si>
+  <si>
+    <t>Nonuniform grid test with extE 1d</t>
+  </si>
+  <si>
+    <t>Test nonunifrom grid for 1d with ext E, only extension is used</t>
+  </si>
+  <si>
+    <t>good growth rate</t>
+  </si>
+  <si>
+    <t>IAT_truc_E1_nonu.lua</t>
+  </si>
+  <si>
+    <t>IAT/extE/E1_wider/</t>
+  </si>
+  <si>
+    <t>Try to expand the simulation box in extremely small E to run longer</t>
+  </si>
+  <si>
+    <t>Try to use truncated distribution function in extremely small to run longer</t>
+  </si>
+  <si>
+    <t>Try to use truncated distribution functio in small E to run longer</t>
+  </si>
+  <si>
+    <t>Ext E , extremely small E, non-u</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +305,19 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -294,6 +352,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,7 +674,7 @@
   <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,31 +689,31 @@
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
     <col min="13" max="13" width="11.140625" customWidth="1"/>
     <col min="14" max="14" width="11.85546875" customWidth="1"/>
     <col min="15" max="15" width="60.5703125" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -674,13 +737,13 @@
         <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,22 +751,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2">
         <v>44281</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
       </c>
       <c r="I2">
         <v>35130778</v>
@@ -721,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -732,31 +795,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
         <v>44280</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I3">
         <v>35120679</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M3">
         <v>1500</v>
@@ -765,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -776,22 +839,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2">
         <v>44294</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4">
         <v>41442347</v>
@@ -809,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -820,20 +883,20 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="2">
         <v>44299</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -859,7 +922,7 @@
         <v>44301</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I6">
         <v>41621254</v>
@@ -871,10 +934,10 @@
         <v>1600</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -882,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
         <v>44304</v>
@@ -891,13 +954,13 @@
         <v>44308</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
@@ -912,16 +975,16 @@
         <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1E-3</v>
       </c>
       <c r="O7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -929,7 +992,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
         <v>44306</v>
@@ -938,13 +1001,13 @@
         <v>44308</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
@@ -959,16 +1022,16 @@
         <v>11</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1E-3</v>
       </c>
       <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="s">
         <v>19</v>
-      </c>
-      <c r="P8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -976,7 +1039,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>44308</v>
@@ -988,7 +1051,7 @@
         <v>44312</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
@@ -1006,26 +1069,32 @@
         <v>11</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N9">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="O9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="11">
         <v>44312</v>
       </c>
-      <c r="I10">
+      <c r="D10" s="11">
+        <v>44314</v>
+      </c>
+      <c r="E10" s="11">
+        <v>44316</v>
+      </c>
+      <c r="I10" s="10">
         <v>41986484</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="10">
         <v>41805113</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="10">
         <v>3000</v>
       </c>
     </row>
@@ -1034,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2">
         <v>44310</v>
@@ -1046,22 +1115,22 @@
         <v>44312</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>35849095</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M11">
         <v>600</v>
@@ -1070,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1081,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C12" s="6">
         <v>44311</v>
@@ -1093,23 +1162,23 @@
         <v>44312</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I12" s="5">
         <v>35857419</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M12" s="5">
         <v>600</v>
@@ -1118,16 +1187,18 @@
         <v>0</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C13" s="6">
         <v>44311</v>
@@ -1139,23 +1210,23 @@
         <v>44312</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I13" s="5">
         <v>35857418</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="5">
         <v>600</v>
@@ -1164,14 +1235,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="P13" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2">
         <v>44312</v>
@@ -1183,13 +1256,31 @@
         <v>44313</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="K14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14">
+        <v>600</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1197,7 +1288,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C15" s="6">
         <v>44312</v>
@@ -1209,13 +1300,28 @@
         <v>44313</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>66</v>
+      <c r="L15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="5">
+        <v>600</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1223,27 +1329,29 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2">
         <v>44313</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>44316</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
         <v>8</v>
       </c>
       <c r="I16">
-        <v>42023290</v>
+        <v>42087020</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>11</v>
@@ -1255,25 +1363,105 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="O16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44316</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44316</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="8">
+        <v>35949169</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="M17" s="8">
+        <v>1200</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="11">
+        <v>44317</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="10">
+        <v>42243076</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="10">
+        <v>3000</v>
+      </c>
+      <c r="N18" s="10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/simulation_record.xlsx
+++ b/simulation_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Gkeyll_IAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111A068E-BDC4-4163-A06D-774117C1A9A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ADC2DC-131A-499A-A3DC-8F1ED7704EB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13230" windowHeight="7980" xr2:uid="{6114E2D3-7950-4F30-8E3B-63CABD540727}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="94">
   <si>
     <t>directory</t>
   </si>
@@ -48,9 +48,6 @@
     <t>tEnd</t>
   </si>
   <si>
-    <t>IAT/extE/ext1_truc</t>
-  </si>
-  <si>
     <t>IATwExt_2x2v_pert.lua</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>{-6,6},{-16,16}</t>
   </si>
   <si>
-    <t>IAT/extE/ext2</t>
-  </si>
-  <si>
     <t>E&lt;E_NL, E&lt;&lt;E*, but relatively large E</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>submit date</t>
   </si>
   <si>
-    <t>IAT/extE/ext1</t>
-  </si>
-  <si>
     <t>failed when getting near to 1600, because the tail of electron distribution function was accelerated to ouside of the box, try truncated Maxwellian</t>
   </si>
   <si>
@@ -228,9 +219,6 @@
     <t>IAT/es_extE/nonu_check/2</t>
   </si>
   <si>
-    <t>IATwExt_1x1v.lua</t>
-  </si>
-  <si>
     <t>108 non-u,32</t>
   </si>
   <si>
@@ -267,9 +255,6 @@
     <t>IAT_truc_E1_nonu.lua</t>
   </si>
   <si>
-    <t>IAT/extE/E1_wider/</t>
-  </si>
-  <si>
     <t>Try to expand the simulation box in extremely small E to run longer</t>
   </si>
   <si>
@@ -280,6 +265,48 @@
   </si>
   <si>
     <t>Ext E , extremely small E, non-u</t>
+  </si>
+  <si>
+    <t>Ext E , small E, non-u</t>
+  </si>
+  <si>
+    <t>3000/362</t>
+  </si>
+  <si>
+    <t>Extremely slow!!!!</t>
+  </si>
+  <si>
+    <t>IATwExt_2x2v_pert.lua/ renamed IAT_E1.lua</t>
+  </si>
+  <si>
+    <t>IAT_truc_E1_nonu.lua/ renamed IAT_E1_truc_nonu.lua</t>
+  </si>
+  <si>
+    <t>IATwExt_1x1v.lua /renamed IAT_nonu2_E1_1x1v.lua</t>
+  </si>
+  <si>
+    <t>IAT/extE/ext1 (IAT/extE/E1)</t>
+  </si>
+  <si>
+    <t>IAT/extE/E1_wider/ (IAT/extE/E1_wider_nonu/)</t>
+  </si>
+  <si>
+    <t>IAT/extE/E2_truc/</t>
+  </si>
+  <si>
+    <t>ExtE, extremely small E</t>
+  </si>
+  <si>
+    <t>Failed because of structure of electron distribution function caused by truncation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAT/extE/ext2 </t>
+  </si>
+  <si>
+    <t>IAT/extE/ext1_truc (IAT/extE/E1_truc)</t>
+  </si>
+  <si>
+    <t>Ext E , extremely small E, E1</t>
   </si>
 </sst>
 </file>
@@ -348,7 +375,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -357,6 +383,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,7 +701,7 @@
   <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,8 +710,8 @@
     <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="44" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
@@ -698,22 +725,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -731,19 +758,19 @@
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,31 +778,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2">
         <v>44281</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>35130778</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2">
         <v>1000</v>
@@ -784,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
         <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -795,31 +822,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2">
         <v>44280</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>35120679</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M3">
         <v>1500</v>
@@ -828,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
         <v>36</v>
-      </c>
-      <c r="P3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -839,31 +866,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2">
         <v>44294</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I4">
         <v>41442347</v>
       </c>
       <c r="K4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <v>1600</v>
@@ -872,48 +899,48 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2">
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10">
         <v>44299</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="9">
+        <v>41547611</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I5">
-        <v>41547611</v>
-      </c>
-      <c r="K5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5">
+      <c r="L5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="9">
         <v>1200</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
@@ -922,7 +949,7 @@
         <v>44301</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I6">
         <v>41621254</v>
@@ -934,10 +961,10 @@
         <v>1600</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -945,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>44304</v>
@@ -954,37 +981,37 @@
         <v>44308</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <v>41733748</v>
       </c>
       <c r="K7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N7">
         <v>1E-3</v>
       </c>
       <c r="O7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -992,7 +1019,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
         <v>44306</v>
@@ -1001,37 +1028,37 @@
         <v>44308</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8">
         <v>41753064</v>
       </c>
       <c r="K8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>1E-3</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1039,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>44308</v>
@@ -1051,50 +1078,50 @@
         <v>44312</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" t="s">
         <v>7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
       </c>
       <c r="I9">
         <v>41805113</v>
       </c>
       <c r="K9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="10">
         <v>44312</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>44314</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>44316</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>41986484</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>41805113</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <v>3000</v>
       </c>
     </row>
@@ -1103,7 +1130,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2">
         <v>44310</v>
@@ -1115,22 +1142,22 @@
         <v>44312</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I11">
         <v>35849095</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M11">
         <v>600</v>
@@ -1139,104 +1166,104 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44311</v>
+      </c>
+      <c r="D12" s="5">
+        <v>44311</v>
+      </c>
+      <c r="E12" s="5">
+        <v>44312</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="4">
+        <v>35857419</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="4">
+        <v>600</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" t="s">
+    </row>
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="C13" s="5">
         <v>44311</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="5">
         <v>44311</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="5">
         <v>44312</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="4">
+        <v>35857418</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="5">
-        <v>35857419</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="5">
+      <c r="L13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="4">
         <v>600</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N13" s="4">
         <v>0</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="6">
-        <v>44311</v>
-      </c>
-      <c r="D13" s="6">
-        <v>44311</v>
-      </c>
-      <c r="E13" s="6">
-        <v>44312</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="5">
-        <v>35857418</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="5">
-        <v>600</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5" t="s">
-        <v>70</v>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,7 +1271,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2">
         <v>44312</v>
@@ -1256,19 +1283,19 @@
         <v>44313</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M14">
         <v>600</v>
@@ -1277,51 +1304,51 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="5">
         <v>44312</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>44312</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>44313</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="5">
+      <c r="F15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="4">
         <v>600</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <v>0</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>78</v>
+      <c r="P15" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1329,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
         <v>44313</v>
@@ -1337,24 +1364,26 @@
       <c r="D16" s="2">
         <v>44316</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>44318</v>
+      </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16">
         <v>42087020</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M16">
         <v>3000</v>
@@ -1363,15 +1392,15 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="O16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2">
         <v>44316</v>
@@ -1383,85 +1412,166 @@
         <v>44316</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="8">
+        <v>25</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="7">
         <v>35949169</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>68</v>
+      <c r="K17" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M17" s="8">
+        <v>65</v>
+      </c>
+      <c r="M17" s="7">
         <v>1200</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="O17" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="O17" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="10">
+        <v>44317</v>
+      </c>
+      <c r="D18" s="10">
+        <v>44318</v>
+      </c>
+      <c r="E18" s="10">
+        <v>44320</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="11">
-        <v>44317</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="I18" s="9">
+        <v>42243076</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="10">
-        <v>42243076</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="10">
-        <v>3000</v>
-      </c>
-      <c r="N18" s="10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C19" s="2">
+        <v>44318</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44320</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44322</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19">
+        <v>42325576</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19">
+        <v>1E-3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44322</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44325</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44325</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44333</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
